--- a/medicine/Psychotrope/Barathon/Barathon.xlsx
+++ b/medicine/Psychotrope/Barathon/Barathon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le barathon, ou tournée des grands duc, est une tournée des bars d'une même rue, d'un même quartier ou bien d'une ville, au cours de laquelle on boit un verre d'alcool (le plus souvent une bière, mais parfois un gin, du whisky, un cocktail, etc.) dans chacun d'eux. Pendant ces soirées, on bénéficie généralement de shots gratuits ainsi que de réductions sur des sélections d'alcool ; de plus, lors de la plupart des barathons organisés, il est possible de participer à des jeux à boire. Le but du barathon étant de rencontrer des personnes tout en passant une bonne soirée.
 L'expression populaire tient directement son nom de la célèbre course à pied de 42 km, le marathon.
